--- a/data/trans_orig/P14A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E4C569-FC72-46C2-88E1-5CB4F5BFEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5ADC33-6123-429F-8512-3172106DE00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{176BEBB2-60E8-46EF-8B2D-3775193C6407}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E5480B3-3C83-48E6-9DE4-2E30E74E9794}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="215">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -138,43 +138,43 @@
     <t>44,37%</t>
   </si>
   <si>
-    <t>89,87%</t>
+    <t>90,63%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>59,14%</t>
+    <t>59,05%</t>
   </si>
   <si>
     <t>71,14%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>10,13%</t>
+    <t>9,37%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>40,86%</t>
+    <t>40,95%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -183,37 +183,37 @@
     <t>89,89%</t>
   </si>
   <si>
-    <t>50,59%</t>
+    <t>43,74%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>28,34%</t>
+    <t>28,58%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>53,45%</t>
+    <t>55,48%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>49,41%</t>
+    <t>56,26%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>71,66%</t>
+    <t>71,42%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>46,55%</t>
+    <t>44,52%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -222,49 +222,49 @@
     <t>50,09%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>32,89%</t>
+    <t>33,87%</t>
   </si>
   <si>
     <t>63,9%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>49,91%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>67,11%</t>
+    <t>66,13%</t>
   </si>
   <si>
     <t>36,1%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -273,10 +273,10 @@
     <t>51,36%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>48,82%</t>
@@ -291,19 +291,19 @@
     <t>50,86%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
   </si>
   <si>
     <t>51,18%</t>
@@ -318,64 +318,64 @@
     <t>49,14%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -420,16 +420,16 @@
     <t>78,98%</t>
   </si>
   <si>
-    <t>43,27%</t>
+    <t>45,66%</t>
   </si>
   <si>
     <t>65,86%</t>
   </si>
   <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>70,31%</t>
@@ -438,43 +438,40 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>56,73%</t>
+    <t>54,34%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
     <t>84,26%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>55,32%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>48,54%</t>
@@ -483,67 +480,64 @@
     <t>15,74%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>16,99%</t>
+    <t>16,73%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>49,47%</t>
+    <t>40,91%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>83,01%</t>
+    <t>83,27%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>50,53%</t>
+    <t>59,09%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>79,89%</t>
@@ -555,13 +549,13 @@
     <t>87,93%</t>
   </si>
   <si>
-    <t>52,7%</t>
+    <t>43,02%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>58,01%</t>
+    <t>56,32%</t>
   </si>
   <si>
     <t>20,11%</t>
@@ -573,13 +567,13 @@
     <t>12,07%</t>
   </si>
   <si>
-    <t>47,3%</t>
+    <t>56,98%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>41,99%</t>
+    <t>43,68%</t>
   </si>
   <si>
     <t>73,67%</t>
@@ -603,10 +597,10 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>26,33%</t>
@@ -630,64 +624,64 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83997C4F-39D8-48EA-9BD1-F9BD20B309CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C867926-BA08-42F8-AF21-7E5B0F02F9E1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2318,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAEE072-E90D-4C12-9719-C649E10C405B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A53186-6545-40E7-96DA-3E4B81D7F881}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2755,10 +2749,10 @@
         <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2767,13 +2761,13 @@
         <v>3899</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2782,13 +2776,13 @@
         <v>6675</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2797,13 @@
         <v>2618</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2818,13 +2812,13 @@
         <v>2772</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2833,13 +2827,13 @@
         <v>5390</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,10 +2901,10 @@
         <v>4142</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2922,10 +2916,10 @@
         <v>8311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2937,13 +2931,13 @@
         <v>12454</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2952,13 @@
         <v>2068</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2973,13 +2967,13 @@
         <v>2105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2988,13 +2982,13 @@
         <v>4172</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,10 +3056,10 @@
         <v>5261</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -3077,10 +3071,10 @@
         <v>9059</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3092,10 +3086,10 @@
         <v>14321</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3113,13 +3107,13 @@
         <v>1324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3128,13 +3122,13 @@
         <v>1244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3143,13 +3137,13 @@
         <v>2568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3211,13 @@
         <v>9834</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3232,13 +3226,13 @@
         <v>13659</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -3247,13 +3241,13 @@
         <v>23493</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3262,13 @@
         <v>3515</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3283,13 +3277,13 @@
         <v>3232</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3298,13 +3292,13 @@
         <v>6747</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3366,13 @@
         <v>22911</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3387,13 +3381,13 @@
         <v>44337</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -3402,13 +3396,13 @@
         <v>67248</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3417,13 @@
         <v>12550</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3438,13 +3432,13 @@
         <v>12106</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3453,13 +3447,13 @@
         <v>24655</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A15-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5ADC33-6123-429F-8512-3172106DE00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2861328-3D96-4A91-A9F4-BC98619ED75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E5480B3-3C83-48E6-9DE4-2E30E74E9794}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AAF6620B-2EDB-44AD-B1BC-0A489C9D8417}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="211">
   <si>
     <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2012 (Tasa respuesta: 1,31%)</t>
   </si>
@@ -117,7 +117,7 @@
     <t>83,88%</t>
   </si>
   <si>
-    <t>32,23%</t>
+    <t>33,24%</t>
   </si>
   <si>
     <t>53,94%</t>
@@ -129,7 +129,7 @@
     <t>16,12%</t>
   </si>
   <si>
-    <t>67,77%</t>
+    <t>66,76%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -138,43 +138,43 @@
     <t>44,37%</t>
   </si>
   <si>
-    <t>90,63%</t>
+    <t>88,99%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>59,05%</t>
+    <t>59,37%</t>
   </si>
   <si>
     <t>71,14%</t>
   </si>
   <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>55,63%</t>
   </si>
   <si>
-    <t>9,37%</t>
+    <t>11,01%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>40,95%</t>
+    <t>40,63%</t>
   </si>
   <si>
     <t>28,86%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -183,37 +183,37 @@
     <t>89,89%</t>
   </si>
   <si>
-    <t>43,74%</t>
+    <t>55,8%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>28,58%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>55,48%</t>
+    <t>50,81%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>56,26%</t>
+    <t>44,2%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>71,42%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>44,52%</t>
+    <t>49,19%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -222,22 +222,22 @@
     <t>50,09%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>33,87%</t>
+    <t>33,57%</t>
   </si>
   <si>
     <t>63,9%</t>
   </si>
   <si>
-    <t>32,53%</t>
+    <t>32,29%</t>
   </si>
   <si>
     <t>92,22%</t>
@@ -246,16 +246,16 @@
     <t>49,91%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>66,13%</t>
+    <t>66,43%</t>
   </si>
   <si>
     <t>36,1%</t>
@@ -264,7 +264,7 @@
     <t>7,78%</t>
   </si>
   <si>
-    <t>67,47%</t>
+    <t>67,71%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -273,115 +273,109 @@
     <t>51,36%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>48,82%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>14,96%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
   </si>
   <si>
     <t>51,18%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>85,04%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>59,6%</t>
   </si>
   <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+    <t>Población que recibe medicación o terapia por problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -396,7 +390,7 @@
     <t>59,78%</t>
   </si>
   <si>
-    <t>19,16%</t>
+    <t>19,13%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -411,7 +405,7 @@
     <t>40,22%</t>
   </si>
   <si>
-    <t>80,84%</t>
+    <t>80,87%</t>
   </si>
   <si>
     <t>29,69%</t>
@@ -420,16 +414,16 @@
     <t>78,98%</t>
   </si>
   <si>
-    <t>45,66%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>65,86%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>70,31%</t>
@@ -438,250 +432,244 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>54,34%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>84,26%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>58,45%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>55,32%</t>
   </si>
   <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>15,74%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>41,55%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>16,73%</t>
+    <t>17,7%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>40,91%</t>
+    <t>39,35%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>83,27%</t>
+    <t>82,3%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>59,09%</t>
+    <t>60,65%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>28,55%</t>
-  </si>
-  <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>43,02%</t>
+    <t>52,32%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>56,32%</t>
+    <t>55,98%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>56,98%</t>
+    <t>47,68%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>43,68%</t>
+    <t>44,02%</t>
   </si>
   <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>73,17%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>26,83%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C867926-BA08-42F8-AF21-7E5B0F02F9E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB470BB4-58F9-4254-95CA-5B66BBEEB7FD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2013,7 +2001,7 @@
         <v>81</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2022,13 +2010,13 @@
         <v>16646</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2031,13 @@
         <v>12793</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2058,13 +2046,13 @@
         <v>3287</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2073,13 +2061,13 @@
         <v>16080</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2135,13 @@
         <v>33956</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -2162,13 +2150,13 @@
         <v>29895</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -2177,13 +2165,13 @@
         <v>63850</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2186,13 @@
         <v>23014</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -2213,13 +2201,13 @@
         <v>7234</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -2228,13 +2216,13 @@
         <v>30249</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2278,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A53186-6545-40E7-96DA-3E4B81D7F881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81F6C74-EDF6-4D20-A393-E9112E7FB340}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2329,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2442,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2451,10 +2439,10 @@
         <v>2821</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2466,10 +2454,10 @@
         <v>2821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2490,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -2502,13 +2490,13 @@
         <v>1001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2517,13 +2505,13 @@
         <v>1898</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2579,7 @@
         <v>898</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>17</v>
@@ -2606,10 +2594,10 @@
         <v>6586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2621,13 +2609,13 @@
         <v>7485</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2630,7 @@
         <v>2127</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>17</v>
@@ -2657,13 +2645,13 @@
         <v>1753</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2672,13 +2660,13 @@
         <v>3880</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2734,13 @@
         <v>2776</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2761,13 +2749,13 @@
         <v>3899</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2776,13 +2764,13 @@
         <v>6675</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2785,13 @@
         <v>2618</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -3059,7 +3047,7 @@
         <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -3071,10 +3059,10 @@
         <v>9059</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -3086,10 +3074,10 @@
         <v>14321</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>11</v>
@@ -3107,13 +3095,13 @@
         <v>1324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3122,13 +3110,13 @@
         <v>1244</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3137,13 +3125,13 @@
         <v>2568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3199,13 @@
         <v>9834</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3226,13 +3214,13 @@
         <v>13659</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -3241,13 +3229,13 @@
         <v>23493</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3250,13 @@
         <v>3515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3277,13 +3265,13 @@
         <v>3232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3292,13 +3280,13 @@
         <v>6747</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3354,13 @@
         <v>22911</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3381,13 +3369,13 @@
         <v>44337</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7">
         <v>63</v>
@@ -3396,13 +3384,13 @@
         <v>67248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3405,13 @@
         <v>12550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -3432,13 +3420,13 @@
         <v>12106</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3447,13 +3435,13 @@
         <v>24655</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3497,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
